--- a/biology/Mycologie/Synchytrium/Synchytrium.xlsx
+++ b/biology/Mycologie/Synchytrium/Synchytrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Synchytrium est un genre de champignons chytrides de la famille des Olpidiaceae.
 Ce genre, le plus important parmi les Chytrides avec plus de 200 espèces, est réparti en six sous-genres sur la base des variations de leur cycle biologique.
 Le genre a globalement une répartition cosmopolite, mais certaines espèces peuvent avoir une aire de distribution plus restreinte. Les espèces de Synchytrium se rencontrent aussi bien dans les régions tropicales et tempérées que dans les zones arctiques, et à des altitudes pouvant atteindre 3000 m.
 Ce sont toutes des parasites, le plus souvent de plantes à fleurs, mais aussi d'algues, de mousses et de fougères. Leur développement est favorisé par un environnement humide.
-Leur gamme d'hôtes est très vaste puisqu'on les a signalées sur 1350 espèces végétales, réparties en 773 genres et 168 familles. Beaucoup d'espèces de Synchytrium sont spécifiques d'une seule espèce, mais certaines parasitent une famille entière, voire admettent un spectre d'hôtes bien plus large[1].
+Leur gamme d'hôtes est très vaste puisqu'on les a signalées sur 1350 espèces végétales, réparties en 773 genres et 168 familles. Beaucoup d'espèces de Synchytrium sont spécifiques d'une seule espèce, mais certaines parasitent une famille entière, voire admettent un spectre d'hôtes bien plus large.
 Quelques espèces ont une importance économique par les dégâts qu'elle provoquent chez certaines plantes cultivées. La plus connue est Synchytrium endobioticum, agent causal de la galle verruqueuse de la pomme de terre.
 </t>
         </is>
@@ -516,9 +528,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (8 novembre 2014)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (8 novembre 2014) :
 Synchytrium subgen. Pychnochytrium de Bary, 1884 ;
 Chrysophlyctis Schilb., 1896 ;
 Woroninella Racib., 1898 ;
@@ -550,9 +564,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (9 novembre 2014)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 novembre 2014) :
 Synchytrium abnorme
 Synchytrium achyroclines
 Synchytrium aecidioides
@@ -790,7 +806,7 @@
 Synchytrium vulgatum
 Synchytrium wurthii
 Synchytrium zorniae
-Selon Index Fungorum                                      (9 novembre 2014)[4] :
+Selon Index Fungorum                                      (9 novembre 2014) :
 Synchytrium abnorme Speg. 1909
 Synchytrium achyroclines Speg. 1909
 Synchytrium aecidioides Farl. 1895
